--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_1_backlog_actividades_horas.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_1_backlog_actividades_horas.xlsx
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -262,6 +262,9 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -544,7 +547,7 @@
       <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <v>4.0</v>
       </c>
     </row>
@@ -558,7 +561,7 @@
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="14">
         <v>2.0</v>
       </c>
     </row>
@@ -572,7 +575,7 @@
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="14">
         <v>2.0</v>
       </c>
     </row>
@@ -586,7 +589,7 @@
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <v>2.0</v>
       </c>
     </row>
@@ -600,7 +603,7 @@
       <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="14">
         <v>3.0</v>
       </c>
     </row>
@@ -614,7 +617,7 @@
       <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="14">
         <v>3.0</v>
       </c>
     </row>
@@ -628,7 +631,7 @@
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <v>5.0</v>
       </c>
     </row>
@@ -642,7 +645,7 @@
       <c r="C14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="14">
         <v>2.0</v>
       </c>
     </row>
@@ -656,7 +659,7 @@
       <c r="C15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="14">
         <v>2.0</v>
       </c>
     </row>
@@ -670,7 +673,7 @@
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="14">
         <v>2.0</v>
       </c>
     </row>
@@ -684,7 +687,7 @@
       <c r="C17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="14">
         <v>3.0</v>
       </c>
     </row>
@@ -695,10 +698,10 @@
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="14">
         <v>2.0</v>
       </c>
     </row>
@@ -709,10 +712,10 @@
       <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="14">
         <v>4.0</v>
       </c>
     </row>
@@ -723,10 +726,10 @@
       <c r="B20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="14">
         <v>3.0</v>
       </c>
     </row>
@@ -740,7 +743,7 @@
       <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="14">
         <v>3.0</v>
       </c>
     </row>
@@ -751,15 +754,15 @@
       <c r="B22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
     <row r="25" ht="14.25" customHeight="1"/>
